--- a/Solution_recipes/Biochemistry_solutions/PhosTag_Solutions.xlsx
+++ b/Solution_recipes/Biochemistry_solutions/PhosTag_Solutions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\Recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Solution_recipes\Biochemistry_solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3953B08-08C1-4989-9C9C-2DC1363775AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E691FCBA-1FD0-4BB1-B5B8-46EAA546990D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,8 +985,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1392,6 +1392,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;18PhosTag Solutions</oddHeader>
     <firstHeader>&amp;LName:
 Date:&amp;C&amp;"Arial,Bold"&amp;18PhosTag Solutions</firstHeader>
   </headerFooter>
@@ -1887,6 +1888,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2109,22 +2125,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3012E31E-5C99-4C5B-9323-B5D42B3C4F74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{576E4525-D34E-471F-91EB-AF7A16356FDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7A5D5A9-477B-4B97-9F9B-D797D2834A6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2141,29 +2167,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{576E4525-D34E-471F-91EB-AF7A16356FDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3012E31E-5C99-4C5B-9323-B5D42B3C4F74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Solution_recipes/Biochemistry_solutions/PhosTag_Solutions.xlsx
+++ b/Solution_recipes/Biochemistry_solutions/PhosTag_Solutions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Solution_recipes\Biochemistry_solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E691FCBA-1FD0-4BB1-B5B8-46EAA546990D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3953B08-08C1-4989-9C9C-2DC1363775AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,8 +985,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1392,7 +1392,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;18PhosTag Solutions</oddHeader>
     <firstHeader>&amp;LName:
 Date:&amp;C&amp;"Arial,Bold"&amp;18PhosTag Solutions</firstHeader>
   </headerFooter>
@@ -1888,21 +1887,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2125,32 +2109,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3012E31E-5C99-4C5B-9323-B5D42B3C4F74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{576E4525-D34E-471F-91EB-AF7A16356FDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7A5D5A9-477B-4B97-9F9B-D797D2834A6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2167,4 +2141,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{576E4525-D34E-471F-91EB-AF7A16356FDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3012E31E-5C99-4C5B-9323-B5D42B3C4F74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>